--- a/Code/Results/Cases/Case_0_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_210/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.261980767195764</v>
+        <v>4.922396194969107</v>
       </c>
       <c r="D2">
-        <v>4.405677272485726</v>
+        <v>3.908425251125884</v>
       </c>
       <c r="E2">
-        <v>30.03149750872867</v>
+        <v>16.5776391118889</v>
       </c>
       <c r="F2">
-        <v>14.0935876920614</v>
+        <v>18.79361713997934</v>
       </c>
       <c r="G2">
-        <v>16.43740511838621</v>
+        <v>19.38262887065268</v>
       </c>
       <c r="H2">
-        <v>6.551720669910639</v>
+        <v>11.86755819350586</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.5121763438405</v>
+        <v>15.35345112616489</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.28274126198873</v>
+        <v>16.80946291675029</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.75827170286816</v>
+        <v>4.749656062919869</v>
       </c>
       <c r="D3">
-        <v>4.206885070227894</v>
+        <v>3.832194808736343</v>
       </c>
       <c r="E3">
-        <v>27.84522122850897</v>
+        <v>15.63195195958803</v>
       </c>
       <c r="F3">
-        <v>13.6614465882383</v>
+        <v>18.86642199658159</v>
       </c>
       <c r="G3">
-        <v>15.72993194818911</v>
+        <v>19.48331001603888</v>
       </c>
       <c r="H3">
-        <v>6.647754622280008</v>
+        <v>11.94244192332396</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.91421704146229</v>
+        <v>14.52557911818607</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.25764530025426</v>
+        <v>16.93241433260239</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.43187185866578</v>
+        <v>4.641814755146623</v>
       </c>
       <c r="D4">
-        <v>4.079851794584319</v>
+        <v>3.784355124520419</v>
       </c>
       <c r="E4">
-        <v>26.439651173335</v>
+        <v>15.02601058613874</v>
       </c>
       <c r="F4">
-        <v>13.42116672378221</v>
+        <v>18.9202297613242</v>
       </c>
       <c r="G4">
-        <v>15.33853785367936</v>
+        <v>19.5596728335035</v>
       </c>
       <c r="H4">
-        <v>6.717031405688463</v>
+        <v>11.99158451527076</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.87857956352512</v>
+        <v>13.99132957241778</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.26882454143371</v>
+        <v>17.01463168044188</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.294516361461058</v>
+        <v>4.597500425413741</v>
       </c>
       <c r="D5">
-        <v>4.02687738131092</v>
+        <v>3.764618242524349</v>
       </c>
       <c r="E5">
-        <v>25.85063803318721</v>
+        <v>14.77299341089933</v>
       </c>
       <c r="F5">
-        <v>13.3295203530499</v>
+        <v>18.9444259588477</v>
       </c>
       <c r="G5">
-        <v>15.18994504817695</v>
+        <v>19.59439493722446</v>
       </c>
       <c r="H5">
-        <v>6.747672049381864</v>
+        <v>12.01240414411071</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.4428717515007</v>
+        <v>13.76725935046791</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.27963050691187</v>
+        <v>17.0498145999936</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.271445020929568</v>
+        <v>4.590122267673529</v>
       </c>
       <c r="D6">
-        <v>4.018009526347098</v>
+        <v>3.761326889107455</v>
       </c>
       <c r="E6">
-        <v>25.75184286437451</v>
+        <v>14.73062106720035</v>
       </c>
       <c r="F6">
-        <v>13.31467948075081</v>
+        <v>18.94858014446695</v>
       </c>
       <c r="G6">
-        <v>15.16593055359571</v>
+        <v>19.60037654102408</v>
       </c>
       <c r="H6">
-        <v>6.752900349093732</v>
+        <v>12.01590910596154</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.36969800378065</v>
+        <v>13.7296739666152</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.28178931967393</v>
+        <v>17.05575772812934</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.430037078751892</v>
+        <v>4.641218497888531</v>
       </c>
       <c r="D7">
-        <v>4.079142188332966</v>
+        <v>3.784089900598135</v>
       </c>
       <c r="E7">
-        <v>26.43177369675824</v>
+        <v>15.02262257881794</v>
       </c>
       <c r="F7">
-        <v>13.41990543494003</v>
+        <v>18.92054692026751</v>
       </c>
       <c r="G7">
-        <v>15.33648968385661</v>
+        <v>19.56012659015786</v>
       </c>
       <c r="H7">
-        <v>6.717435111331193</v>
+        <v>11.99186208522967</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.87275878168132</v>
+        <v>13.98833319314668</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.26894555368363</v>
+        <v>17.01509938891241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.091830839029919</v>
+        <v>4.86324982896815</v>
       </c>
       <c r="D8">
-        <v>4.338189756552</v>
+        <v>3.882366215337472</v>
       </c>
       <c r="E8">
-        <v>29.29057041148222</v>
+        <v>16.25695879599966</v>
       </c>
       <c r="F8">
-        <v>13.93937844854008</v>
+        <v>18.81681849277812</v>
       </c>
       <c r="G8">
-        <v>16.18462736247034</v>
+        <v>19.41429381270279</v>
       </c>
       <c r="H8">
-        <v>6.582578745273934</v>
+        <v>11.89272031922256</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.97251316703381</v>
+        <v>15.07347047451003</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.26831361435323</v>
+        <v>16.85045343407776</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.25563041590925</v>
+        <v>5.281408412192639</v>
       </c>
       <c r="D9">
-        <v>4.805189413824185</v>
+        <v>4.066128010381672</v>
       </c>
       <c r="E9">
-        <v>34.41206246748821</v>
+        <v>18.57999496940994</v>
       </c>
       <c r="F9">
-        <v>15.15650243020632</v>
+        <v>18.68650825181048</v>
       </c>
       <c r="G9">
-        <v>18.18112145275552</v>
+        <v>19.24593930504486</v>
       </c>
       <c r="H9">
-        <v>6.408829913302376</v>
+        <v>11.72349316923153</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.65823512483529</v>
+        <v>16.99006086201405</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.49621504067983</v>
+        <v>16.58149472829069</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.031710383326272</v>
+        <v>5.574389549265597</v>
       </c>
       <c r="D10">
-        <v>5.121743631083652</v>
+        <v>4.194730873136172</v>
       </c>
       <c r="E10">
-        <v>37.90502932534394</v>
+        <v>20.23262884167457</v>
       </c>
       <c r="F10">
-        <v>16.16971231034586</v>
+        <v>18.63640362995793</v>
       </c>
       <c r="G10">
-        <v>20.01057236710919</v>
+        <v>19.19670165509524</v>
       </c>
       <c r="H10">
-        <v>6.349617909258281</v>
+        <v>11.61464056659879</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.10514370295425</v>
+        <v>18.2635693095583</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.82553583152866</v>
+        <v>16.41752142505423</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.368254032558831</v>
+        <v>5.703924806459257</v>
       </c>
       <c r="D11">
-        <v>5.259777239142151</v>
+        <v>4.251663005321444</v>
       </c>
       <c r="E11">
-        <v>39.44192787249681</v>
+        <v>20.94204666506026</v>
       </c>
       <c r="F11">
-        <v>16.6977600733179</v>
+        <v>18.62371482260991</v>
       </c>
       <c r="G11">
-        <v>20.88997115977812</v>
+        <v>19.19096042784507</v>
       </c>
       <c r="H11">
-        <v>6.340618990895486</v>
+        <v>11.56850965035772</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.16252873761965</v>
+        <v>18.81287239101498</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.01436092553327</v>
+        <v>16.35039442714788</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.493377022382782</v>
+        <v>5.752391626059548</v>
       </c>
       <c r="D12">
-        <v>5.311177732989462</v>
+        <v>4.272982084673106</v>
       </c>
       <c r="E12">
-        <v>40.01703194008475</v>
+        <v>21.20462853075963</v>
       </c>
       <c r="F12">
-        <v>16.94815104272321</v>
+        <v>18.62037627988761</v>
       </c>
       <c r="G12">
-        <v>21.22639228207695</v>
+        <v>19.19121446982395</v>
       </c>
       <c r="H12">
-        <v>6.340057428574762</v>
+        <v>11.55153060528103</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.55501299680434</v>
+        <v>19.01651290701051</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.0917269616135</v>
+        <v>16.326062562819</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.46653178102272</v>
+        <v>5.74198015372837</v>
       </c>
       <c r="D13">
-        <v>5.30014653958967</v>
+        <v>4.268401522876401</v>
       </c>
       <c r="E13">
-        <v>39.8934688740899</v>
+        <v>21.14834577623792</v>
       </c>
       <c r="F13">
-        <v>16.89421286981427</v>
+        <v>18.62102988016953</v>
       </c>
       <c r="G13">
-        <v>21.15378738866719</v>
+        <v>19.19105130359393</v>
       </c>
       <c r="H13">
-        <v>6.340047469624174</v>
+        <v>11.55516552102052</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.4708353492922</v>
+        <v>18.97285026606564</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.07480054999428</v>
+        <v>16.33125426434277</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.378594127212782</v>
+        <v>5.70792418223686</v>
       </c>
       <c r="D14">
-        <v>5.264023471789092</v>
+        <v>4.253421823864604</v>
       </c>
       <c r="E14">
-        <v>39.48937632817299</v>
+        <v>20.96377067594591</v>
       </c>
       <c r="F14">
-        <v>16.7183545229349</v>
+        <v>18.62341069865677</v>
       </c>
       <c r="G14">
-        <v>20.91758079339845</v>
+        <v>19.19093249695107</v>
       </c>
       <c r="H14">
-        <v>6.34051419780436</v>
+        <v>11.56710294318402</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.19497690726706</v>
+        <v>18.82971382459624</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.02060710852679</v>
+        <v>16.3483707500673</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.324429458245593</v>
+        <v>5.686986382887315</v>
       </c>
       <c r="D15">
-        <v>5.241783505009551</v>
+        <v>4.244214683255674</v>
       </c>
       <c r="E15">
-        <v>39.24098031369465</v>
+        <v>20.84992500742706</v>
       </c>
       <c r="F15">
-        <v>16.6106708930464</v>
+        <v>18.62506035967847</v>
       </c>
       <c r="G15">
-        <v>20.77333932051926</v>
+        <v>19.19117681541086</v>
       </c>
       <c r="H15">
-        <v>6.341178768979123</v>
+        <v>11.57447881906722</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.02497655009302</v>
+        <v>18.74146837618057</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.9881821783647</v>
+        <v>16.3589971605079</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.009388975500332</v>
+        <v>5.565844634954329</v>
       </c>
       <c r="D16">
-        <v>5.112601614714912</v>
+        <v>4.190977402995774</v>
       </c>
       <c r="E16">
-        <v>37.80359140189559</v>
+        <v>20.18541696523233</v>
       </c>
       <c r="F16">
-        <v>16.13844324567913</v>
+        <v>18.63743738786482</v>
       </c>
       <c r="G16">
-        <v>19.95358435696021</v>
+        <v>19.1974149780993</v>
       </c>
       <c r="H16">
-        <v>6.350589589400723</v>
+        <v>11.61772371054314</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.03492698353876</v>
+        <v>18.22706225127283</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.8140033136389</v>
+        <v>16.42205976315775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.811933186454739</v>
+        <v>5.490534012945338</v>
       </c>
       <c r="D17">
-        <v>5.031814331796157</v>
+        <v>4.157905590900858</v>
       </c>
       <c r="E17">
-        <v>36.90886938750487</v>
+        <v>19.76693417399366</v>
       </c>
       <c r="F17">
-        <v>15.86722782310509</v>
+        <v>18.64762836514551</v>
       </c>
       <c r="G17">
-        <v>19.45688570346342</v>
+        <v>19.20553332810709</v>
       </c>
       <c r="H17">
-        <v>6.361144331436989</v>
+        <v>11.64512237558343</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.41334901265655</v>
+        <v>17.90376066712924</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.7173366869498</v>
+        <v>16.46266873133679</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.696805456521863</v>
+        <v>5.446867432288008</v>
       </c>
       <c r="D18">
-        <v>4.984786226702057</v>
+        <v>4.138736569861665</v>
       </c>
       <c r="E18">
-        <v>36.38930796091908</v>
+        <v>19.52224351761889</v>
       </c>
       <c r="F18">
-        <v>15.71361272757464</v>
+        <v>18.65444029404696</v>
       </c>
       <c r="G18">
-        <v>19.17352385184225</v>
+        <v>19.21176902369409</v>
       </c>
       <c r="H18">
-        <v>6.368886916859672</v>
+        <v>11.66119996421284</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30.05058227765627</v>
+        <v>17.71498250492758</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.66539689048263</v>
+        <v>16.48672775094451</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.657556294941291</v>
+        <v>5.432024110754572</v>
       </c>
       <c r="D19">
-        <v>4.968767325989883</v>
+        <v>4.132221469622067</v>
       </c>
       <c r="E19">
-        <v>36.21252759512424</v>
+        <v>19.43870906662482</v>
       </c>
       <c r="F19">
-        <v>15.66201176281528</v>
+        <v>18.65690947801802</v>
       </c>
       <c r="G19">
-        <v>19.07798766732061</v>
+        <v>19.21414823393435</v>
       </c>
       <c r="H19">
-        <v>6.371787544971568</v>
+        <v>11.66669819781561</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.92685129465518</v>
+        <v>17.65058227416553</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.64843120355382</v>
+        <v>16.49499382816787</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.833113393936689</v>
+        <v>5.498587529978948</v>
       </c>
       <c r="D20">
-        <v>5.040472476716695</v>
+        <v>4.161441460027674</v>
       </c>
       <c r="E20">
-        <v>37.00462131821955</v>
+        <v>19.81189512841569</v>
       </c>
       <c r="F20">
-        <v>15.89585311941387</v>
+        <v>18.64644505703207</v>
       </c>
       <c r="G20">
-        <v>19.50952068802711</v>
+        <v>19.20450676066537</v>
       </c>
       <c r="H20">
-        <v>6.359845828587547</v>
+        <v>11.64217274735032</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.48005996882234</v>
+        <v>17.93846932091765</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.72724621998588</v>
+        <v>16.45827309954197</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.404486032347242</v>
+        <v>5.717943480681967</v>
       </c>
       <c r="D21">
-        <v>5.274657369424889</v>
+        <v>4.257828342667273</v>
       </c>
       <c r="E21">
-        <v>39.60824982854404</v>
+        <v>21.01814903395398</v>
       </c>
       <c r="F21">
-        <v>16.77000111201085</v>
+        <v>18.62267149786457</v>
       </c>
       <c r="G21">
-        <v>20.98686841618336</v>
+        <v>19.1909012612582</v>
       </c>
       <c r="H21">
-        <v>6.340297705358701</v>
+        <v>11.56358331953232</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.27621750038905</v>
+        <v>18.87187538082449</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.03636415687756</v>
+        <v>16.34331359094224</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.764423106401015</v>
+        <v>5.857875334320354</v>
       </c>
       <c r="D22">
-        <v>5.422638405597532</v>
+        <v>4.319418653726564</v>
       </c>
       <c r="E22">
-        <v>41.27006933561326</v>
+        <v>21.77120326455838</v>
       </c>
       <c r="F22">
-        <v>17.49928804230876</v>
+        <v>18.61568650165557</v>
       </c>
       <c r="G22">
-        <v>21.97229397216238</v>
+        <v>19.19617338890291</v>
       </c>
       <c r="H22">
-        <v>6.344239191523656</v>
+        <v>11.51507644810884</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.4039727087679</v>
+        <v>19.45643068331978</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.49565219294794</v>
+        <v>16.27452730476131</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.573533323514198</v>
+        <v>5.783519027968699</v>
       </c>
       <c r="D23">
-        <v>5.344124930805648</v>
+        <v>4.286679634064768</v>
       </c>
       <c r="E23">
-        <v>40.38654819945524</v>
+        <v>21.37250304613747</v>
       </c>
       <c r="F23">
-        <v>17.10990254734317</v>
+        <v>18.61862801754996</v>
       </c>
       <c r="G23">
-        <v>21.44455364529548</v>
+        <v>19.19205416939775</v>
       </c>
       <c r="H23">
-        <v>6.340516166707122</v>
+        <v>11.5407032409005</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.80625664000089</v>
+        <v>19.1467878561378</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.20562710484393</v>
+        <v>16.31065444912488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.823542833986295</v>
+        <v>5.494947682240323</v>
       </c>
       <c r="D24">
-        <v>5.036559942578562</v>
+        <v>4.159843377138015</v>
       </c>
       <c r="E24">
-        <v>36.96134803008792</v>
+        <v>19.7915810527331</v>
       </c>
       <c r="F24">
-        <v>15.88290442354595</v>
+        <v>18.64697706304827</v>
       </c>
       <c r="G24">
-        <v>19.48571755716078</v>
+        <v>19.20496598895075</v>
       </c>
       <c r="H24">
-        <v>6.360427686114051</v>
+        <v>11.64350525977765</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.44991681322504</v>
+        <v>17.92278659161718</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.72275481705739</v>
+        <v>16.46025814660495</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.954862711945869</v>
+        <v>5.170542077602847</v>
       </c>
       <c r="D25">
-        <v>4.683426928838701</v>
+        <v>4.01747586668752</v>
       </c>
       <c r="E25">
-        <v>33.07594490122841</v>
+        <v>17.93359550080326</v>
       </c>
       <c r="F25">
-        <v>14.8061387627167</v>
+        <v>18.71381825512076</v>
       </c>
       <c r="G25">
-        <v>17.60660946171766</v>
+        <v>19.27859106995845</v>
       </c>
       <c r="H25">
-        <v>6.444816685481617</v>
+        <v>11.76656455851996</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.70722586743045</v>
+        <v>16.49487722653124</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.40759005473901</v>
+        <v>16.64840504627985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_210/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_210/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.922396194969107</v>
+        <v>7.261980767195754</v>
       </c>
       <c r="D2">
-        <v>3.908425251125884</v>
+        <v>4.405677272485707</v>
       </c>
       <c r="E2">
-        <v>16.5776391118889</v>
+        <v>30.03149750872866</v>
       </c>
       <c r="F2">
-        <v>18.79361713997934</v>
+        <v>14.09358769206148</v>
       </c>
       <c r="G2">
-        <v>19.38262887065268</v>
+        <v>16.43740511838627</v>
       </c>
       <c r="H2">
-        <v>11.86755819350586</v>
+        <v>6.551720669910741</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.35345112616489</v>
+        <v>25.51217634384045</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.80946291675029</v>
+        <v>10.28274126198884</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749656062919869</v>
+        <v>6.758271702868106</v>
       </c>
       <c r="D3">
-        <v>3.832194808736343</v>
+        <v>4.206885070227923</v>
       </c>
       <c r="E3">
-        <v>15.63195195958803</v>
+        <v>27.84522122850897</v>
       </c>
       <c r="F3">
-        <v>18.86642199658159</v>
+        <v>13.6614465882382</v>
       </c>
       <c r="G3">
-        <v>19.48331001603888</v>
+        <v>15.72993194818897</v>
       </c>
       <c r="H3">
-        <v>11.94244192332396</v>
+        <v>6.647754622280008</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.52557911818607</v>
+        <v>23.91421704146231</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.93241433260239</v>
+        <v>10.25764530025418</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.641814755146623</v>
+        <v>6.431871858665763</v>
       </c>
       <c r="D4">
-        <v>3.784355124520419</v>
+        <v>4.079851794584326</v>
       </c>
       <c r="E4">
-        <v>15.02601058613874</v>
+        <v>26.43965117333503</v>
       </c>
       <c r="F4">
-        <v>18.9202297613242</v>
+        <v>13.42116672378205</v>
       </c>
       <c r="G4">
-        <v>19.5596728335035</v>
+        <v>15.33853785367922</v>
       </c>
       <c r="H4">
-        <v>11.99158451527076</v>
+        <v>6.717031405688306</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.99132957241778</v>
+        <v>22.87857956352521</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.01463168044188</v>
+        <v>10.26882454143352</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.597500425413741</v>
+        <v>6.294516361461127</v>
       </c>
       <c r="D5">
-        <v>3.764618242524349</v>
+        <v>4.026877381310968</v>
       </c>
       <c r="E5">
-        <v>14.77299341089933</v>
+        <v>25.85063803318726</v>
       </c>
       <c r="F5">
-        <v>18.9444259588477</v>
+        <v>13.32952035304986</v>
       </c>
       <c r="G5">
-        <v>19.59439493722446</v>
+        <v>15.18994504817688</v>
       </c>
       <c r="H5">
-        <v>12.01240414411071</v>
+        <v>6.747672049381853</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.76725935046791</v>
+        <v>22.44287175150074</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.0498145999936</v>
+        <v>10.27963050691179</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.590122267673529</v>
+        <v>6.271445020929568</v>
       </c>
       <c r="D6">
-        <v>3.761326889107455</v>
+        <v>4.018009526347185</v>
       </c>
       <c r="E6">
-        <v>14.73062106720035</v>
+        <v>25.75184286437458</v>
       </c>
       <c r="F6">
-        <v>18.94858014446695</v>
+        <v>13.31467948075069</v>
       </c>
       <c r="G6">
-        <v>19.60037654102408</v>
+        <v>15.1659305535956</v>
       </c>
       <c r="H6">
-        <v>12.01590910596154</v>
+        <v>6.752900349093674</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.7296739666152</v>
+        <v>22.36969800378072</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.05575772812934</v>
+        <v>10.28178931967383</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.641218497888531</v>
+        <v>6.430037078751806</v>
       </c>
       <c r="D7">
-        <v>3.784089900598135</v>
+        <v>4.079142188332894</v>
       </c>
       <c r="E7">
-        <v>15.02262257881794</v>
+        <v>26.43177369675824</v>
       </c>
       <c r="F7">
-        <v>18.92054692026751</v>
+        <v>13.41990543493994</v>
       </c>
       <c r="G7">
-        <v>19.56012659015786</v>
+        <v>15.33648968385644</v>
       </c>
       <c r="H7">
-        <v>11.99186208522967</v>
+        <v>6.717435111331037</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.98833319314668</v>
+        <v>22.87275878168139</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.01509938891241</v>
+        <v>10.26894555368348</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.86324982896815</v>
+        <v>7.091830839029881</v>
       </c>
       <c r="D8">
-        <v>3.882366215337472</v>
+        <v>4.338189756552051</v>
       </c>
       <c r="E8">
-        <v>16.25695879599966</v>
+        <v>29.29057041148221</v>
       </c>
       <c r="F8">
-        <v>18.81681849277812</v>
+        <v>13.93937844854004</v>
       </c>
       <c r="G8">
-        <v>19.41429381270279</v>
+        <v>16.18462736247036</v>
       </c>
       <c r="H8">
-        <v>11.89272031922256</v>
+        <v>6.58257874527394</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.07347047451003</v>
+        <v>24.97251316703383</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.85045343407776</v>
+        <v>10.2683136143532</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.281408412192639</v>
+        <v>8.255630415909193</v>
       </c>
       <c r="D9">
-        <v>4.066128010381672</v>
+        <v>4.805189413824227</v>
       </c>
       <c r="E9">
-        <v>18.57999496940994</v>
+        <v>34.41206246748818</v>
       </c>
       <c r="F9">
-        <v>18.68650825181048</v>
+        <v>15.15650243020631</v>
       </c>
       <c r="G9">
-        <v>19.24593930504486</v>
+        <v>18.18112145275555</v>
       </c>
       <c r="H9">
-        <v>11.72349316923153</v>
+        <v>6.408829913302369</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.99006086201405</v>
+        <v>28.65823512483525</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.58149472829069</v>
+        <v>10.49621504067987</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.574389549265597</v>
+        <v>9.031710383326221</v>
       </c>
       <c r="D10">
-        <v>4.194730873136172</v>
+        <v>5.121743631083672</v>
       </c>
       <c r="E10">
-        <v>20.23262884167457</v>
+        <v>37.9050293253439</v>
       </c>
       <c r="F10">
-        <v>18.63640362995793</v>
+        <v>16.16971231034591</v>
       </c>
       <c r="G10">
-        <v>19.19670165509524</v>
+        <v>20.01057236710921</v>
       </c>
       <c r="H10">
-        <v>11.61464056659879</v>
+        <v>6.349617909258301</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.2635693095583</v>
+        <v>31.10514370295422</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.41752142505423</v>
+        <v>10.82553583152873</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.703924806459257</v>
+        <v>9.368254032558715</v>
       </c>
       <c r="D11">
-        <v>4.251663005321444</v>
+        <v>5.259777239142157</v>
       </c>
       <c r="E11">
-        <v>20.94204666506026</v>
+        <v>39.4419278724968</v>
       </c>
       <c r="F11">
-        <v>18.62371482260991</v>
+        <v>16.69776007331791</v>
       </c>
       <c r="G11">
-        <v>19.19096042784507</v>
+        <v>20.8899711597781</v>
       </c>
       <c r="H11">
-        <v>11.56850965035772</v>
+        <v>6.340618990895486</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.81287239101498</v>
+        <v>32.1625287376196</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.35039442714788</v>
+        <v>11.01436092553329</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.752391626059548</v>
+        <v>9.49337702238272</v>
       </c>
       <c r="D12">
-        <v>4.272982084673106</v>
+        <v>5.311177732989461</v>
       </c>
       <c r="E12">
-        <v>21.20462853075963</v>
+        <v>40.0170319400848</v>
       </c>
       <c r="F12">
-        <v>18.62037627988761</v>
+        <v>16.94815104272319</v>
       </c>
       <c r="G12">
-        <v>19.19121446982395</v>
+        <v>21.22639228207692</v>
       </c>
       <c r="H12">
-        <v>11.55153060528103</v>
+        <v>6.340057428574769</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.01651290701051</v>
+        <v>32.55501299680434</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.326062562819</v>
+        <v>11.09172696161349</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.74198015372837</v>
+        <v>9.466531781022681</v>
       </c>
       <c r="D13">
-        <v>4.268401522876401</v>
+        <v>5.300146539589645</v>
       </c>
       <c r="E13">
-        <v>21.14834577623792</v>
+        <v>39.89346887408996</v>
       </c>
       <c r="F13">
-        <v>18.62102988016953</v>
+        <v>16.89421286981422</v>
       </c>
       <c r="G13">
-        <v>19.19105130359393</v>
+        <v>21.15378738866709</v>
       </c>
       <c r="H13">
-        <v>11.55516552102052</v>
+        <v>6.340047469624169</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.97285026606564</v>
+        <v>32.4708353492922</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.33125426434277</v>
+        <v>11.07480054999426</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.70792418223686</v>
+        <v>9.378594127212754</v>
       </c>
       <c r="D14">
-        <v>4.253421823864604</v>
+        <v>5.264023471789012</v>
       </c>
       <c r="E14">
-        <v>20.96377067594591</v>
+        <v>39.48937632817307</v>
       </c>
       <c r="F14">
-        <v>18.62341069865677</v>
+        <v>16.71835452293498</v>
       </c>
       <c r="G14">
-        <v>19.19093249695107</v>
+        <v>20.91758079339866</v>
       </c>
       <c r="H14">
-        <v>11.56710294318402</v>
+        <v>6.340514197804341</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.82971382459624</v>
+        <v>32.19497690726711</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.3483707500673</v>
+        <v>11.02060710852678</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.686986382887315</v>
+        <v>9.324429458245637</v>
       </c>
       <c r="D15">
-        <v>4.244214683255674</v>
+        <v>5.241783505009608</v>
       </c>
       <c r="E15">
-        <v>20.84992500742706</v>
+        <v>39.24098031369462</v>
       </c>
       <c r="F15">
-        <v>18.62506035967847</v>
+        <v>16.61067089304638</v>
       </c>
       <c r="G15">
-        <v>19.19117681541086</v>
+        <v>20.77333932051917</v>
       </c>
       <c r="H15">
-        <v>11.57447881906722</v>
+        <v>6.341178768979157</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.74146837618057</v>
+        <v>32.02497655009301</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.3589971605079</v>
+        <v>10.98818217836473</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.565844634954329</v>
+        <v>9.009388975500357</v>
       </c>
       <c r="D16">
-        <v>4.190977402995774</v>
+        <v>5.112601614714984</v>
       </c>
       <c r="E16">
-        <v>20.18541696523233</v>
+        <v>37.80359140189552</v>
       </c>
       <c r="F16">
-        <v>18.63743738786482</v>
+        <v>16.13844324567911</v>
       </c>
       <c r="G16">
-        <v>19.1974149780993</v>
+        <v>19.95358435696026</v>
       </c>
       <c r="H16">
-        <v>11.61772371054314</v>
+        <v>6.350589589400689</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.22706225127283</v>
+        <v>31.03492698353877</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.42205976315775</v>
+        <v>10.81400331363888</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.490534012945338</v>
+        <v>8.811933186454713</v>
       </c>
       <c r="D17">
-        <v>4.157905590900858</v>
+        <v>5.031814331796149</v>
       </c>
       <c r="E17">
-        <v>19.76693417399366</v>
+        <v>36.90886938750499</v>
       </c>
       <c r="F17">
-        <v>18.64762836514551</v>
+        <v>15.86722782310514</v>
       </c>
       <c r="G17">
-        <v>19.20553332810709</v>
+        <v>19.4568857034635</v>
       </c>
       <c r="H17">
-        <v>11.64512237558343</v>
+        <v>6.361144331437002</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.90376066712924</v>
+        <v>30.41334901265655</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.46266873133679</v>
+        <v>10.71733668694981</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.446867432288008</v>
+        <v>8.69680545652178</v>
       </c>
       <c r="D18">
-        <v>4.138736569861665</v>
+        <v>4.984786226702057</v>
       </c>
       <c r="E18">
-        <v>19.52224351761889</v>
+        <v>36.38930796091915</v>
       </c>
       <c r="F18">
-        <v>18.65444029404696</v>
+        <v>15.71361272757473</v>
       </c>
       <c r="G18">
-        <v>19.21176902369409</v>
+        <v>19.17352385184225</v>
       </c>
       <c r="H18">
-        <v>11.66119996421284</v>
+        <v>6.368886916859736</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.71498250492758</v>
+        <v>30.0505822776562</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.48672775094451</v>
+        <v>10.66539689048273</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.432024110754572</v>
+        <v>8.657556294941395</v>
       </c>
       <c r="D19">
-        <v>4.132221469622067</v>
+        <v>4.968767325989973</v>
       </c>
       <c r="E19">
-        <v>19.43870906662482</v>
+        <v>36.21252759512429</v>
       </c>
       <c r="F19">
-        <v>18.65690947801802</v>
+        <v>15.66201176281525</v>
       </c>
       <c r="G19">
-        <v>19.21414823393435</v>
+        <v>19.07798766732069</v>
       </c>
       <c r="H19">
-        <v>11.66669819781561</v>
+        <v>6.371787544971522</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.65058227416553</v>
+        <v>29.9268512946552</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.49499382816787</v>
+        <v>10.64843120355378</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.498587529978948</v>
+        <v>8.833113393936703</v>
       </c>
       <c r="D20">
-        <v>4.161441460027674</v>
+        <v>5.040472476716792</v>
       </c>
       <c r="E20">
-        <v>19.81189512841569</v>
+        <v>37.00462131821956</v>
       </c>
       <c r="F20">
-        <v>18.64644505703207</v>
+        <v>15.89585311941387</v>
       </c>
       <c r="G20">
-        <v>19.20450676066537</v>
+        <v>19.50952068802716</v>
       </c>
       <c r="H20">
-        <v>11.64217274735032</v>
+        <v>6.359845828587553</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.93846932091765</v>
+        <v>30.48005996882236</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.45827309954197</v>
+        <v>10.72724621998588</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.717943480681967</v>
+        <v>9.404486032347258</v>
       </c>
       <c r="D21">
-        <v>4.257828342667273</v>
+        <v>5.274657369424933</v>
       </c>
       <c r="E21">
-        <v>21.01814903395398</v>
+        <v>39.60824982854398</v>
       </c>
       <c r="F21">
-        <v>18.62267149786457</v>
+        <v>16.77000111201087</v>
       </c>
       <c r="G21">
-        <v>19.1909012612582</v>
+        <v>20.98686841618348</v>
       </c>
       <c r="H21">
-        <v>11.56358331953232</v>
+        <v>6.340297705358673</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.87187538082449</v>
+        <v>32.27621750038905</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.34331359094224</v>
+        <v>11.03636415687749</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.857875334320354</v>
+        <v>9.764423106401056</v>
       </c>
       <c r="D22">
-        <v>4.319418653726564</v>
+        <v>5.422638405597481</v>
       </c>
       <c r="E22">
-        <v>21.77120326455838</v>
+        <v>41.27006933561332</v>
       </c>
       <c r="F22">
-        <v>18.61568650165557</v>
+        <v>17.4992880423088</v>
       </c>
       <c r="G22">
-        <v>19.19617338890291</v>
+        <v>21.97229397216246</v>
       </c>
       <c r="H22">
-        <v>11.51507644810884</v>
+        <v>6.344239191523686</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.45643068331978</v>
+        <v>33.4039727087679</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.27452730476131</v>
+        <v>11.49565219294798</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.783519027968699</v>
+        <v>9.573533323514081</v>
       </c>
       <c r="D23">
-        <v>4.286679634064768</v>
+        <v>5.344124930805668</v>
       </c>
       <c r="E23">
-        <v>21.37250304613747</v>
+        <v>40.38654819945518</v>
       </c>
       <c r="F23">
-        <v>18.61862801754996</v>
+        <v>17.10990254734309</v>
       </c>
       <c r="G23">
-        <v>19.19205416939775</v>
+        <v>21.44455364529537</v>
       </c>
       <c r="H23">
-        <v>11.5407032409005</v>
+        <v>6.34051616670713</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.1467878561378</v>
+        <v>32.80625664000086</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.31065444912488</v>
+        <v>11.20562710484385</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.494947682240323</v>
+        <v>8.823542833986409</v>
       </c>
       <c r="D24">
-        <v>4.159843377138015</v>
+        <v>5.036559942578562</v>
       </c>
       <c r="E24">
-        <v>19.7915810527331</v>
+        <v>36.96134803008778</v>
       </c>
       <c r="F24">
-        <v>18.64697706304827</v>
+        <v>15.88290442354596</v>
       </c>
       <c r="G24">
-        <v>19.20496598895075</v>
+        <v>19.48571755716092</v>
       </c>
       <c r="H24">
-        <v>11.64350525977765</v>
+        <v>6.360427686114058</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.92278659161718</v>
+        <v>30.44991681322505</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.46025814660495</v>
+        <v>10.72275481705737</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.170542077602847</v>
+        <v>7.954862711945909</v>
       </c>
       <c r="D25">
-        <v>4.01747586668752</v>
+        <v>4.683426928838668</v>
       </c>
       <c r="E25">
-        <v>17.93359550080326</v>
+        <v>33.07594490122838</v>
       </c>
       <c r="F25">
-        <v>18.71381825512076</v>
+        <v>14.80613876271669</v>
       </c>
       <c r="G25">
-        <v>19.27859106995845</v>
+        <v>17.60660946171764</v>
       </c>
       <c r="H25">
-        <v>11.76656455851996</v>
+        <v>6.44481668548161</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.49487722653124</v>
+        <v>27.70722586743042</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.64840504627985</v>
+        <v>10.40759005473902</v>
       </c>
     </row>
   </sheetData>
